--- a/src/EXCEL2.xlsx
+++ b/src/EXCEL2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="07" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Fournisseur" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Colonnes" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
@@ -541,11 +541,11 @@
   </sheetPr>
   <dimension ref="A1:AR35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AM21" activeCellId="0" sqref="AM21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.22"/>
@@ -5101,7 +5101,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5226,11 +5226,11 @@
   </sheetPr>
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/src/EXCEL2.xlsx
+++ b/src/EXCEL2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="07" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="7" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Fournisseur" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Colonnes" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
@@ -541,11 +541,11 @@
   </sheetPr>
   <dimension ref="A1:AR35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AR36" activeCellId="0" sqref="AR36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.22"/>
@@ -5101,7 +5101,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5226,11 +5226,11 @@
   </sheetPr>
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
